--- a/po_analysis_by_asin/B083RW9KDM_po_data.xlsx
+++ b/po_analysis_by_asin/B083RW9KDM_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,185 +452,273 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>270</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>36</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>342</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45355</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45369</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>126</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45376</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>510</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45425</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45439</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45460</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45481</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45488</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>24</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45495</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>96</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45502</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>564</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45530</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45537</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>168</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45544</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>12</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45551</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>108</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45572</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>108</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45579</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>372</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45593</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B24" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B35" t="n">
         <v>84</v>
       </c>
     </row>
@@ -645,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,73 +755,97 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>486</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>522</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>864</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>312</v>
+        <v>864</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>456</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>288</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B10" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B13" t="n">
         <v>564</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B083RW9KDM_po_data.xlsx
+++ b/po_analysis_by_asin/B083RW9KDM_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -749,7 +750,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -847,6 +848,635 @@
       </c>
       <c r="B13" t="n">
         <v>564</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>112</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-58.79844233487992</v>
+      </c>
+      <c r="D2" t="n">
+        <v>279.7396821760149</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>113</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-66.62550910383793</v>
+      </c>
+      <c r="D3" t="n">
+        <v>289.6346998483162</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>114</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-54.01821338958175</v>
+      </c>
+      <c r="D4" t="n">
+        <v>288.7549032498516</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>115</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-54.23241335699939</v>
+      </c>
+      <c r="D5" t="n">
+        <v>290.9057263874448</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>116</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-55.00516127442363</v>
+      </c>
+      <c r="D6" t="n">
+        <v>294.6533925954742</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>116</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-48.59343477593214</v>
+      </c>
+      <c r="D7" t="n">
+        <v>294.1457885252713</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>117</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-47.6056130867667</v>
+      </c>
+      <c r="D8" t="n">
+        <v>296.9280012012326</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>118</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-70.68376412800141</v>
+      </c>
+      <c r="D9" t="n">
+        <v>304.5269824829912</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>119</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-58.89125146481592</v>
+      </c>
+      <c r="D10" t="n">
+        <v>280.6406155491514</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>120</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-43.82698631170107</v>
+      </c>
+      <c r="D11" t="n">
+        <v>294.8967326182299</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>121</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-61.00019811492076</v>
+      </c>
+      <c r="D12" t="n">
+        <v>307.0970614124209</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>123</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-53.69884646464946</v>
+      </c>
+      <c r="D13" t="n">
+        <v>299.8315119994359</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>124</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-47.88307037047192</v>
+      </c>
+      <c r="D14" t="n">
+        <v>286.1216038722903</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>125</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-38.20509714330692</v>
+      </c>
+      <c r="D15" t="n">
+        <v>302.2567212591962</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>127</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-44.87287777993823</v>
+      </c>
+      <c r="D16" t="n">
+        <v>310.5777548462612</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>128</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-44.95490314159684</v>
+      </c>
+      <c r="D17" t="n">
+        <v>304.7686186695204</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>130</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-39.1149882580626</v>
+      </c>
+      <c r="D18" t="n">
+        <v>303.9451876694436</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>131</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-27.86011817686937</v>
+      </c>
+      <c r="D19" t="n">
+        <v>316.5354641340138</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>133</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-48.0904235716667</v>
+      </c>
+      <c r="D20" t="n">
+        <v>320.0475445808512</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>134</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-39.9986497619024</v>
+      </c>
+      <c r="D21" t="n">
+        <v>307.7708479146663</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>140</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-36.56553771649618</v>
+      </c>
+      <c r="D22" t="n">
+        <v>316.9524251069653</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>142</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-37.32807620216333</v>
+      </c>
+      <c r="D23" t="n">
+        <v>309.4913570868071</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>144</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-31.35752005298017</v>
+      </c>
+      <c r="D24" t="n">
+        <v>313.1171528052162</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>147</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-23.98601711673678</v>
+      </c>
+      <c r="D25" t="n">
+        <v>321.1871161275313</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>148</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-39.84358851608742</v>
+      </c>
+      <c r="D26" t="n">
+        <v>317.4012806555612</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>149</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-33.09406131901742</v>
+      </c>
+      <c r="D27" t="n">
+        <v>315.7066374559143</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>150</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-10.81350553155918</v>
+      </c>
+      <c r="D28" t="n">
+        <v>334.6344438067576</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>153</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-22.77091098064397</v>
+      </c>
+      <c r="D29" t="n">
+        <v>326.7923069316521</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>154</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-16.43327797235706</v>
+      </c>
+      <c r="D30" t="n">
+        <v>327.955396774263</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>155</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-10.73845683425773</v>
+      </c>
+      <c r="D31" t="n">
+        <v>334.2774519419344</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>156</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-9.801455158288142</v>
+      </c>
+      <c r="D32" t="n">
+        <v>319.6319497953992</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>158</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-19.98536277838026</v>
+      </c>
+      <c r="D33" t="n">
+        <v>326.4724137488204</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>159</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-16.47824004477787</v>
+      </c>
+      <c r="D34" t="n">
+        <v>329.2925510300843</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>161</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-11.68643863937995</v>
+      </c>
+      <c r="D35" t="n">
+        <v>333.2770549634352</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>162</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-22.16587975487008</v>
+      </c>
+      <c r="D36" t="n">
+        <v>334.7166232353062</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>163</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-15.96654576471777</v>
+      </c>
+      <c r="D37" t="n">
+        <v>336.0245485283361</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>164</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.671824506622844</v>
+      </c>
+      <c r="D38" t="n">
+        <v>350.2769690171277</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>165</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-11.8993544819963</v>
+      </c>
+      <c r="D39" t="n">
+        <v>331.9305246493624</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>165</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-14.01412617920807</v>
+      </c>
+      <c r="D40" t="n">
+        <v>329.336908784934</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>166</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-13.06982132734259</v>
+      </c>
+      <c r="D41" t="n">
+        <v>336.869148384543</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>167</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-4.4020586550688</v>
+      </c>
+      <c r="D42" t="n">
+        <v>346.0395989849919</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>168</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-3.07520627317512</v>
+      </c>
+      <c r="D43" t="n">
+        <v>349.2275898295051</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B083RW9KDM_po_data.xlsx
+++ b/po_analysis_by_asin/B083RW9KDM_po_data.xlsx
@@ -861,7 +861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -880,16 +880,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -898,12 +888,6 @@
       <c r="B2" t="n">
         <v>112</v>
       </c>
-      <c r="C2" t="n">
-        <v>-58.79844233487992</v>
-      </c>
-      <c r="D2" t="n">
-        <v>279.7396821760149</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -912,12 +896,6 @@
       <c r="B3" t="n">
         <v>113</v>
       </c>
-      <c r="C3" t="n">
-        <v>-66.62550910383793</v>
-      </c>
-      <c r="D3" t="n">
-        <v>289.6346998483162</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -926,12 +904,6 @@
       <c r="B4" t="n">
         <v>114</v>
       </c>
-      <c r="C4" t="n">
-        <v>-54.01821338958175</v>
-      </c>
-      <c r="D4" t="n">
-        <v>288.7549032498516</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -940,12 +912,6 @@
       <c r="B5" t="n">
         <v>115</v>
       </c>
-      <c r="C5" t="n">
-        <v>-54.23241335699939</v>
-      </c>
-      <c r="D5" t="n">
-        <v>290.9057263874448</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -954,12 +920,6 @@
       <c r="B6" t="n">
         <v>116</v>
       </c>
-      <c r="C6" t="n">
-        <v>-55.00516127442363</v>
-      </c>
-      <c r="D6" t="n">
-        <v>294.6533925954742</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -968,12 +928,6 @@
       <c r="B7" t="n">
         <v>116</v>
       </c>
-      <c r="C7" t="n">
-        <v>-48.59343477593214</v>
-      </c>
-      <c r="D7" t="n">
-        <v>294.1457885252713</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -982,12 +936,6 @@
       <c r="B8" t="n">
         <v>117</v>
       </c>
-      <c r="C8" t="n">
-        <v>-47.6056130867667</v>
-      </c>
-      <c r="D8" t="n">
-        <v>296.9280012012326</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -996,12 +944,6 @@
       <c r="B9" t="n">
         <v>118</v>
       </c>
-      <c r="C9" t="n">
-        <v>-70.68376412800141</v>
-      </c>
-      <c r="D9" t="n">
-        <v>304.5269824829912</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1010,12 +952,6 @@
       <c r="B10" t="n">
         <v>119</v>
       </c>
-      <c r="C10" t="n">
-        <v>-58.89125146481592</v>
-      </c>
-      <c r="D10" t="n">
-        <v>280.6406155491514</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1024,12 +960,6 @@
       <c r="B11" t="n">
         <v>120</v>
       </c>
-      <c r="C11" t="n">
-        <v>-43.82698631170107</v>
-      </c>
-      <c r="D11" t="n">
-        <v>294.8967326182299</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1038,12 +968,6 @@
       <c r="B12" t="n">
         <v>121</v>
       </c>
-      <c r="C12" t="n">
-        <v>-61.00019811492076</v>
-      </c>
-      <c r="D12" t="n">
-        <v>307.0970614124209</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1052,12 +976,6 @@
       <c r="B13" t="n">
         <v>123</v>
       </c>
-      <c r="C13" t="n">
-        <v>-53.69884646464946</v>
-      </c>
-      <c r="D13" t="n">
-        <v>299.8315119994359</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1066,12 +984,6 @@
       <c r="B14" t="n">
         <v>124</v>
       </c>
-      <c r="C14" t="n">
-        <v>-47.88307037047192</v>
-      </c>
-      <c r="D14" t="n">
-        <v>286.1216038722903</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1080,12 +992,6 @@
       <c r="B15" t="n">
         <v>125</v>
       </c>
-      <c r="C15" t="n">
-        <v>-38.20509714330692</v>
-      </c>
-      <c r="D15" t="n">
-        <v>302.2567212591962</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1094,12 +1000,6 @@
       <c r="B16" t="n">
         <v>127</v>
       </c>
-      <c r="C16" t="n">
-        <v>-44.87287777993823</v>
-      </c>
-      <c r="D16" t="n">
-        <v>310.5777548462612</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1108,12 +1008,6 @@
       <c r="B17" t="n">
         <v>128</v>
       </c>
-      <c r="C17" t="n">
-        <v>-44.95490314159684</v>
-      </c>
-      <c r="D17" t="n">
-        <v>304.7686186695204</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1122,12 +1016,6 @@
       <c r="B18" t="n">
         <v>130</v>
       </c>
-      <c r="C18" t="n">
-        <v>-39.1149882580626</v>
-      </c>
-      <c r="D18" t="n">
-        <v>303.9451876694436</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1136,12 +1024,6 @@
       <c r="B19" t="n">
         <v>131</v>
       </c>
-      <c r="C19" t="n">
-        <v>-27.86011817686937</v>
-      </c>
-      <c r="D19" t="n">
-        <v>316.5354641340138</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1150,12 +1032,6 @@
       <c r="B20" t="n">
         <v>133</v>
       </c>
-      <c r="C20" t="n">
-        <v>-48.0904235716667</v>
-      </c>
-      <c r="D20" t="n">
-        <v>320.0475445808512</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1164,12 +1040,6 @@
       <c r="B21" t="n">
         <v>134</v>
       </c>
-      <c r="C21" t="n">
-        <v>-39.9986497619024</v>
-      </c>
-      <c r="D21" t="n">
-        <v>307.7708479146663</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1178,12 +1048,6 @@
       <c r="B22" t="n">
         <v>140</v>
       </c>
-      <c r="C22" t="n">
-        <v>-36.56553771649618</v>
-      </c>
-      <c r="D22" t="n">
-        <v>316.9524251069653</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1192,12 +1056,6 @@
       <c r="B23" t="n">
         <v>142</v>
       </c>
-      <c r="C23" t="n">
-        <v>-37.32807620216333</v>
-      </c>
-      <c r="D23" t="n">
-        <v>309.4913570868071</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1206,12 +1064,6 @@
       <c r="B24" t="n">
         <v>144</v>
       </c>
-      <c r="C24" t="n">
-        <v>-31.35752005298017</v>
-      </c>
-      <c r="D24" t="n">
-        <v>313.1171528052162</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1220,12 +1072,6 @@
       <c r="B25" t="n">
         <v>147</v>
       </c>
-      <c r="C25" t="n">
-        <v>-23.98601711673678</v>
-      </c>
-      <c r="D25" t="n">
-        <v>321.1871161275313</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1234,12 +1080,6 @@
       <c r="B26" t="n">
         <v>148</v>
       </c>
-      <c r="C26" t="n">
-        <v>-39.84358851608742</v>
-      </c>
-      <c r="D26" t="n">
-        <v>317.4012806555612</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1248,12 +1088,6 @@
       <c r="B27" t="n">
         <v>149</v>
       </c>
-      <c r="C27" t="n">
-        <v>-33.09406131901742</v>
-      </c>
-      <c r="D27" t="n">
-        <v>315.7066374559143</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1262,12 +1096,6 @@
       <c r="B28" t="n">
         <v>150</v>
       </c>
-      <c r="C28" t="n">
-        <v>-10.81350553155918</v>
-      </c>
-      <c r="D28" t="n">
-        <v>334.6344438067576</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1276,12 +1104,6 @@
       <c r="B29" t="n">
         <v>153</v>
       </c>
-      <c r="C29" t="n">
-        <v>-22.77091098064397</v>
-      </c>
-      <c r="D29" t="n">
-        <v>326.7923069316521</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1290,12 +1112,6 @@
       <c r="B30" t="n">
         <v>154</v>
       </c>
-      <c r="C30" t="n">
-        <v>-16.43327797235706</v>
-      </c>
-      <c r="D30" t="n">
-        <v>327.955396774263</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1304,12 +1120,6 @@
       <c r="B31" t="n">
         <v>155</v>
       </c>
-      <c r="C31" t="n">
-        <v>-10.73845683425773</v>
-      </c>
-      <c r="D31" t="n">
-        <v>334.2774519419344</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1318,12 +1128,6 @@
       <c r="B32" t="n">
         <v>156</v>
       </c>
-      <c r="C32" t="n">
-        <v>-9.801455158288142</v>
-      </c>
-      <c r="D32" t="n">
-        <v>319.6319497953992</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1332,12 +1136,6 @@
       <c r="B33" t="n">
         <v>158</v>
       </c>
-      <c r="C33" t="n">
-        <v>-19.98536277838026</v>
-      </c>
-      <c r="D33" t="n">
-        <v>326.4724137488204</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1346,12 +1144,6 @@
       <c r="B34" t="n">
         <v>159</v>
       </c>
-      <c r="C34" t="n">
-        <v>-16.47824004477787</v>
-      </c>
-      <c r="D34" t="n">
-        <v>329.2925510300843</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1360,12 +1152,6 @@
       <c r="B35" t="n">
         <v>161</v>
       </c>
-      <c r="C35" t="n">
-        <v>-11.68643863937995</v>
-      </c>
-      <c r="D35" t="n">
-        <v>333.2770549634352</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1374,12 +1160,6 @@
       <c r="B36" t="n">
         <v>162</v>
       </c>
-      <c r="C36" t="n">
-        <v>-22.16587975487008</v>
-      </c>
-      <c r="D36" t="n">
-        <v>334.7166232353062</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1388,12 +1168,6 @@
       <c r="B37" t="n">
         <v>163</v>
       </c>
-      <c r="C37" t="n">
-        <v>-15.96654576471777</v>
-      </c>
-      <c r="D37" t="n">
-        <v>336.0245485283361</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1402,12 +1176,6 @@
       <c r="B38" t="n">
         <v>164</v>
       </c>
-      <c r="C38" t="n">
-        <v>1.671824506622844</v>
-      </c>
-      <c r="D38" t="n">
-        <v>350.2769690171277</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1416,12 +1184,6 @@
       <c r="B39" t="n">
         <v>165</v>
       </c>
-      <c r="C39" t="n">
-        <v>-11.8993544819963</v>
-      </c>
-      <c r="D39" t="n">
-        <v>331.9305246493624</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1430,12 +1192,6 @@
       <c r="B40" t="n">
         <v>165</v>
       </c>
-      <c r="C40" t="n">
-        <v>-14.01412617920807</v>
-      </c>
-      <c r="D40" t="n">
-        <v>329.336908784934</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1444,12 +1200,6 @@
       <c r="B41" t="n">
         <v>166</v>
       </c>
-      <c r="C41" t="n">
-        <v>-13.06982132734259</v>
-      </c>
-      <c r="D41" t="n">
-        <v>336.869148384543</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1458,12 +1208,6 @@
       <c r="B42" t="n">
         <v>167</v>
       </c>
-      <c r="C42" t="n">
-        <v>-4.4020586550688</v>
-      </c>
-      <c r="D42" t="n">
-        <v>346.0395989849919</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1471,12 +1215,6 @@
       </c>
       <c r="B43" t="n">
         <v>168</v>
-      </c>
-      <c r="C43" t="n">
-        <v>-3.07520627317512</v>
-      </c>
-      <c r="D43" t="n">
-        <v>349.2275898295051</v>
       </c>
     </row>
   </sheetData>
